--- a/Data/Transitions/19381946Translation.xlsx
+++ b/Data/Transitions/19381946Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="625">
   <si>
     <t>id</t>
   </si>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -229,7 +229,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -274,7 +274,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,19 +319,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -343,7 +343,7 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.2765425174972384, 307.0: 0.9844963966062609}</t>
+    <t>{202.0: 0.27656206348482465, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
@@ -364,7 +364,7 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -409,7 +409,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,6 +448,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -502,7 +505,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -511,7 +514,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -544,7 +547,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -640,9 +643,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -655,16 +655,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -703,7 +703,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -727,7 +727,7 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 783.0: 0.0003181673560292714}</t>
+    <t>{430.0: 1.0, 783.0: 0.0003204101249599487}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -778,7 +778,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1087,7 +1087,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1108,7 +1108,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1159,10 +1159,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9820117474302497}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1288,7 +1288,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1297,7 +1297,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1315,10 +1315,10 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1333,7 +1333,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1375,7 +1375,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1387,13 +1387,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 634.0: 0.9963536918869644}</t>
+    <t>{848.0: 1.0, 634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1402,7 +1402,7 @@
     <t>{852.0: 0.9974811083123426}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.7234574825027617, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076}</t>
+    <t>{853.0: 1.0, 202.0: 0.7234379365151753, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1465,10 +1465,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1477,7 +1477,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0}</t>
@@ -1570,7 +1570,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435521, 208.0: 0.00047236655644780347}</t>
@@ -1633,9 +1633,6 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{140.0: 0.9858227848101265, 762.0: 0.014177215189873417}</t>
   </si>
   <si>
@@ -1663,13 +1660,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568005, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057646, 850.0: 0.00017881733719363324}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487686}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968887, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237904, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831426, 307.0: 0.18747406921685753}</t>
@@ -1699,7 +1696,7 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{270.0: 0.9873640905083751, 479.0: 0.012635909491625037}</t>
@@ -1726,7 +1723,7 @@
     <t>{404.0: 0.7774172615184944, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
@@ -1735,7 +1732,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.9996376811594208, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -1753,7 +1750,7 @@
     <t>{479.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -1810,7 +1807,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458069, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972789, 208.0: 0.042517006802721094}</t>
@@ -1837,13 +1834,13 @@
     <t>{762.0: 0.9509029955661298, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.980357142857143, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725945, 81.0: 0.0003498542274052478}</t>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1867,10 +1864,10 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 0.8544847497773937, 202.0: 0.06297508154718895, 477.0: 0.08245134865873935, 307.0: 8.882001667771656e-05}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.007233540005904928}</t>
+    <t>{853.0: 0.8544847497773942, 202.0: 0.06297508154718895, 477.0: 0.08245134865873935, 307.0: 8.882001667771656e-05}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -3022,7 +3019,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3077,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3088,7 +3085,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3121,7 +3118,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3154,7 +3151,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3187,7 +3184,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3275,7 +3272,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3308,7 +3305,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3319,7 +3316,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3352,7 +3349,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3363,7 +3360,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3374,7 +3371,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3396,7 +3393,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3440,7 +3437,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3506,7 +3503,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3517,7 +3514,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3550,7 +3547,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3671,7 +3668,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3682,7 +3679,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3737,7 +3734,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3819,7 +3816,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3841,7 +3838,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3863,7 +3860,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3874,7 +3871,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3885,29 +3882,29 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>559</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>558</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3918,7 +3915,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3940,7 +3937,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3984,7 +3981,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4006,40 +4003,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>560</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4050,29 +4047,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>562</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4083,7 +4080,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4116,7 +4113,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4127,29 +4124,29 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>563</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4171,29 +4168,29 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>564</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4204,7 +4201,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4237,7 +4234,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4248,7 +4245,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4281,7 +4278,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4292,7 +4289,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4314,7 +4311,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4336,7 +4333,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4358,29 +4355,29 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>565</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4402,7 +4399,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4413,7 +4410,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4424,7 +4421,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4457,29 +4454,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>556</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4490,7 +4487,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4512,7 +4509,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4523,7 +4520,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4551,7 +4548,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4562,7 +4559,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4584,7 +4581,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4606,7 +4603,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4617,7 +4614,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4760,7 +4757,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4826,7 +4823,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4848,7 +4845,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4870,7 +4867,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4969,7 +4966,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4991,7 +4988,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5013,7 +5010,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5035,7 +5032,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5167,7 +5164,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5321,7 +5318,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5354,7 +5351,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5453,7 +5450,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5530,7 +5527,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5563,7 +5560,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5574,7 +5571,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5662,7 +5659,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5673,7 +5670,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5695,7 +5692,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5750,7 +5747,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5794,7 +5791,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5805,7 +5802,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5904,7 +5901,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5915,7 +5912,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5959,7 +5956,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5970,7 +5967,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6168,7 +6165,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6245,7 +6242,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6355,7 +6352,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6366,7 +6363,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6377,7 +6374,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6432,7 +6429,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6443,7 +6440,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6476,7 +6473,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6498,7 +6495,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6751,7 +6748,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6806,7 +6803,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6850,7 +6847,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6905,7 +6902,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6938,7 +6935,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7004,7 +7001,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7015,7 +7012,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7070,7 +7067,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7114,7 +7111,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7224,7 +7221,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7268,7 +7265,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7290,7 +7287,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7312,7 +7309,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7323,7 +7320,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7367,7 +7364,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7455,7 +7452,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7554,7 +7551,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7565,7 +7562,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7598,7 +7595,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7730,7 +7727,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7873,7 +7870,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7939,7 +7936,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8027,7 +8024,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8082,7 +8079,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
